--- a/popsize/migsaldo.xlsx
+++ b/popsize/migsaldo.xlsx
@@ -82,12 +82,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -111,9 +120,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -396,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,10 +420,10 @@
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>2018</v>
       </c>
@@ -434,7 +446,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,8 +472,9 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -487,8 +500,9 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -514,8 +528,9 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -541,8 +556,9 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -568,8 +584,9 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -595,8 +612,11 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -622,8 +642,9 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -649,8 +670,9 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -674,10 +696,14 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -703,8 +729,12 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -730,8 +760,9 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -755,10 +786,14 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -784,8 +819,12 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -811,8 +850,9 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -838,8 +878,9 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -865,8 +906,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -892,8 +934,9 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -919,8 +962,10 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/popsize/migsaldo.xlsx
+++ b/popsize/migsaldo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Бокситогорский</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Сосновоборский</t>
-  </si>
-  <si>
-    <t>Сред. приращение</t>
   </si>
 </sst>
 </file>
@@ -411,7 +408,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,9 +436,7 @@
       <c r="F1" s="1">
         <v>2022</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -465,9 +460,7 @@
       <c r="F2" s="1">
         <v>36</v>
       </c>
-      <c r="G2" s="1">
-        <v>55.5</v>
-      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -493,9 +486,7 @@
       <c r="F3" s="1">
         <v>154</v>
       </c>
-      <c r="G3" s="1">
-        <v>-36</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -521,9 +512,7 @@
       <c r="F4" s="1">
         <v>-39</v>
       </c>
-      <c r="G4" s="1">
-        <v>90.25</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -549,9 +538,7 @@
       <c r="F5" s="1">
         <v>28336</v>
       </c>
-      <c r="G5" s="1">
-        <v>-3962</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -577,9 +564,7 @@
       <c r="F6" s="1">
         <v>223</v>
       </c>
-      <c r="G6" s="1">
-        <v>165.75</v>
-      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -605,9 +590,7 @@
       <c r="F7" s="1">
         <v>122</v>
       </c>
-      <c r="G7" s="1">
-        <v>-54.25</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -635,9 +618,7 @@
       <c r="F8" s="1">
         <v>-101</v>
       </c>
-      <c r="G8" s="1">
-        <v>514.75</v>
-      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -663,9 +644,7 @@
       <c r="F9" s="1">
         <v>-219</v>
       </c>
-      <c r="G9" s="1">
-        <v>-55</v>
-      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -691,9 +670,7 @@
       <c r="F10" s="1">
         <v>124</v>
       </c>
-      <c r="G10" s="1">
-        <v>-153.25</v>
-      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
@@ -722,9 +699,7 @@
       <c r="F11" s="1">
         <v>52</v>
       </c>
-      <c r="G11" s="1">
-        <v>51.75</v>
-      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -753,9 +728,7 @@
       <c r="F12" s="1">
         <v>5515</v>
       </c>
-      <c r="G12" s="1">
-        <v>850</v>
-      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -781,9 +754,7 @@
       <c r="F13" s="1">
         <v>-361</v>
       </c>
-      <c r="G13" s="1">
-        <v>-81.25</v>
-      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
@@ -812,9 +783,7 @@
       <c r="F14" s="1">
         <v>-138</v>
       </c>
-      <c r="G14" s="1">
-        <v>47</v>
-      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -843,9 +812,7 @@
       <c r="F15" s="1">
         <v>144</v>
       </c>
-      <c r="G15" s="1">
-        <v>103</v>
-      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -871,9 +838,7 @@
       <c r="F16" s="1">
         <v>-56</v>
       </c>
-      <c r="G16" s="1">
-        <v>-59.25</v>
-      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -899,9 +864,7 @@
       <c r="F17" s="1">
         <v>-258</v>
       </c>
-      <c r="G17" s="1">
-        <v>-99.25</v>
-      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -927,9 +890,7 @@
       <c r="F18" s="1">
         <v>-1360</v>
       </c>
-      <c r="G18" s="1">
-        <v>-156.5</v>
-      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -955,9 +916,7 @@
       <c r="F19" s="1">
         <v>-501</v>
       </c>
-      <c r="G19" s="1">
-        <v>-238.25</v>
-      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
